--- a/Тестовое_СИБУР.xlsx
+++ b/Тестовое_СИБУР.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Desktop\test\Test_SIBUR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF730E9-BEB8-4BDC-A28D-79F5BFAC3378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDE8CF8-52F3-44E4-BA9F-36F25A64E289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="76">
   <si>
     <t xml:space="preserve">Индификатор </t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Создание несолькоих (5) таймеров</t>
-  </si>
-  <si>
-    <t>3. Повторить шаг 2 ещё 4 раза</t>
   </si>
   <si>
     <t>На главном экране нахоится 5 таймеров</t>
@@ -267,17 +264,43 @@
   <si>
     <t>5.Нажать на оранжевую кнопку ПАУЗА</t>
   </si>
+  <si>
+    <t>3.Выбрать время</t>
+  </si>
+  <si>
+    <t>4. Нажать зеленую кнопку старт</t>
+  </si>
+  <si>
+    <t>5. Повторить шаг 2-4 ещё 4 раза</t>
+  </si>
+  <si>
+    <t>Отмена не созданного таймера</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.Нажать зелёную кнопку ОТМЕНИТЬ в верхнем левом углу </t>
+  </si>
+  <si>
+    <t>Таймер не создастся</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,7 +366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -778,13 +801,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -885,81 +939,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -974,7 +1028,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -983,56 +1037,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% — акцент3" xfId="2" builtinId="38"/>
@@ -1315,10 +1417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,26 +1434,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="87" t="s">
-        <v>66</v>
+      <c r="G1" s="84" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1365,210 +1467,198 @@
         <v>6</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="17"/>
       <c r="C3" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="14"/>
       <c r="F3" s="24"/>
       <c r="G3" s="63" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="29"/>
-    </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="90"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="63"/>
+    </row>
+    <row r="5" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="8"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="90"/>
       <c r="E5" s="8"/>
       <c r="F5" s="20"/>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="25" t="s">
+      <c r="G5" s="63"/>
+    </row>
+    <row r="6" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="20"/>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>3</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>8</v>
-      </c>
+      <c r="A7" s="19"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="5" t="s">
-        <v>21</v>
+      <c r="C8" s="25" t="s">
+        <v>70</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="20"/>
       <c r="G8" s="29"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="8"/>
       <c r="C9" s="25" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="20"/>
       <c r="G9" s="29"/>
     </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>4</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="6" t="s">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="D11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="20"/>
       <c r="G11" s="29"/>
     </row>
-    <row r="12" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="25" t="s">
-        <v>17</v>
+      <c r="C12" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="20"/>
       <c r="G12" s="29"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="75"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="74"/>
-    </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>5</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="10" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="29"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="29"/>
+    </row>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>4</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="25" t="s">
-        <v>24</v>
+      <c r="C16" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1576,84 +1666,76 @@
       <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>6</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>8</v>
-      </c>
+      <c r="A17" s="19"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="29"/>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="26" t="s">
-        <v>23</v>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="91" t="s">
+        <v>71</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="20"/>
       <c r="G18" s="29"/>
     </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="29"/>
-    </row>
-    <row r="20" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="33" t="s">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="73"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="72"/>
+    </row>
+    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>5</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="29"/>
-    </row>
-    <row r="21" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
-        <v>7</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="E20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="29"/>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="25" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="8"/>
@@ -1661,128 +1743,136 @@
       <c r="F22" s="20"/>
       <c r="G22" s="29"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="33" t="s">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>6</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="29"/>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="29"/>
+    </row>
+    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="30"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="29"/>
+    </row>
+    <row r="27" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>7</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="29"/>
-    </row>
-    <row r="24" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="E27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="65"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="G27" s="29"/>
+    </row>
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="26" t="s">
-        <v>68</v>
+      <c r="C28" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="20"/>
       <c r="G28" s="29"/>
     </row>
-    <row r="29" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="31"/>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="19"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="20"/>
       <c r="G29" s="29"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="71"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="74"/>
-    </row>
-    <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
-        <v>9</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="34" t="s">
+    <row r="30" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
         <v>8</v>
       </c>
-      <c r="G31" s="64" t="s">
-        <v>65</v>
-      </c>
+      <c r="B30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="65"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
@@ -1792,626 +1882,758 @@
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="66"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F32" s="20"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="26" t="s">
         <v>40</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="66"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="66"/>
-    </row>
-    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
+      <c r="F33" s="20"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="29"/>
+    </row>
+    <row r="35" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="30"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="29"/>
+    </row>
+    <row r="36" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="97">
+        <v>9</v>
+      </c>
+      <c r="B36" s="98" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="92"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="30"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="92"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="30"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="92"/>
+    </row>
+    <row r="39" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="102"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="104" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="103"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="92"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="95"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="72"/>
+    </row>
+    <row r="41" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
         <v>10</v>
       </c>
-      <c r="B35" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="34" t="s">
+      <c r="B41" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="66"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="66"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="66"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="66"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="66"/>
-    </row>
-    <row r="40" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="21"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="66"/>
-    </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="18">
-        <v>11</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="66"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="19"/>
       <c r="B42" s="8"/>
-      <c r="C42" s="5" t="s">
-        <v>39</v>
+      <c r="C42" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="66"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
       <c r="B43" s="8"/>
       <c r="C43" s="25" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="66"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="25" t="s">
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="21"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="66"/>
+    </row>
+    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>11</v>
+      </c>
+      <c r="B45" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="66"/>
-    </row>
-    <row r="45" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="41"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="57"/>
-    </row>
-    <row r="46" spans="1:7" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="46">
+      <c r="C45" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="66"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="66"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="66"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="19"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="66"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="19"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="66"/>
+    </row>
+    <row r="50" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="21"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="66"/>
+    </row>
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="18">
         <v>12</v>
       </c>
-      <c r="B46" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="57"/>
-    </row>
-    <row r="47" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="57"/>
-    </row>
-    <row r="48" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="45" t="s">
+      <c r="B51" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="66"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="19"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="66"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="19"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="66"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="19"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="57"/>
-    </row>
-    <row r="49" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="57"/>
-    </row>
-    <row r="50" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="57"/>
-    </row>
-    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="57"/>
-    </row>
-    <row r="52" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="37"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="57"/>
-    </row>
-    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="50">
-        <v>13</v>
-      </c>
-      <c r="B53" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="E53" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="G53" s="57"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="57"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="66"/>
+    </row>
+    <row r="55" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="41"/>
       <c r="B55" s="42"/>
-      <c r="C55" s="45" t="s">
-        <v>40</v>
+      <c r="C55" s="79" t="s">
+        <v>69</v>
       </c>
       <c r="D55" s="42"/>
       <c r="E55" s="42"/>
       <c r="F55" s="42"/>
       <c r="G55" s="57"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="42"/>
+    <row r="56" spans="1:7" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="46">
+        <v>13</v>
+      </c>
+      <c r="B56" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="58" t="s">
+        <v>8</v>
+      </c>
       <c r="G56" s="57"/>
     </row>
-    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="41"/>
       <c r="B57" s="42"/>
-      <c r="C57" s="83" t="s">
-        <v>49</v>
+      <c r="C57" s="49" t="s">
+        <v>38</v>
       </c>
       <c r="D57" s="42"/>
       <c r="E57" s="42"/>
       <c r="F57" s="42"/>
       <c r="G57" s="57"/>
     </row>
-    <row r="58" spans="1:7" s="27" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="51"/>
-      <c r="B58" s="44"/>
-      <c r="C58" s="48" t="s">
+    <row r="58" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="41"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="57"/>
+    </row>
+    <row r="59" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="41"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="57"/>
+    </row>
+    <row r="60" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="41"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="57"/>
+    </row>
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="41"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="57"/>
+    </row>
+    <row r="62" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="37"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="57"/>
+    </row>
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="50">
+        <v>14</v>
+      </c>
+      <c r="B63" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="57"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="41"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="57"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="41"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="57"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="41"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="57"/>
+    </row>
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="41"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="57"/>
+    </row>
+    <row r="68" spans="1:7" s="27" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="51"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="57"/>
+    </row>
+    <row r="69" spans="1:7" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="60">
+        <v>15</v>
+      </c>
+      <c r="B69" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="57"/>
-    </row>
-    <row r="59" spans="1:7" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="60">
-        <v>14</v>
-      </c>
-      <c r="B59" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="C59" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="E59" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="62" t="s">
+      <c r="C69" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="E69" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="52"/>
-    </row>
-    <row r="60" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="51"/>
-      <c r="B60" s="44"/>
-      <c r="C60" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="52"/>
-    </row>
-    <row r="61" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="52"/>
-    </row>
-    <row r="62" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="51"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="52"/>
-    </row>
-    <row r="63" spans="1:7" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="51"/>
-      <c r="B63" s="44"/>
-      <c r="C63" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="D63" s="44"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="52"/>
-    </row>
-    <row r="64" spans="1:7" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="78"/>
-      <c r="B64" s="79"/>
-      <c r="C64" s="73"/>
-      <c r="D64" s="79"/>
-      <c r="E64" s="79"/>
-      <c r="F64" s="80"/>
-      <c r="G64" s="80"/>
-    </row>
-    <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="50">
-        <v>15</v>
-      </c>
-      <c r="B65" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C65" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="E65" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="G65" s="81" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="54"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="67"/>
-    </row>
-    <row r="67" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="54"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="67"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="41"/>
-      <c r="B68" s="42"/>
-      <c r="C68" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="D68" s="42"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="52"/>
-    </row>
-    <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="37"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="40"/>
       <c r="G69" s="52"/>
     </row>
-    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="11">
-        <v>16</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C70" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G70" s="68"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="19"/>
-      <c r="B71" s="8"/>
+    <row r="70" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="51"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52"/>
+    </row>
+    <row r="71" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="51"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="68"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="19"/>
-      <c r="B72" s="8"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="52"/>
+    </row>
+    <row r="72" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="51"/>
+      <c r="B72" s="44"/>
       <c r="C72" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="68"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="68"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="19"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="68"/>
-    </row>
-    <row r="75" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="21"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="7" t="s">
+      <c r="D72" s="44"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
+    </row>
+    <row r="73" spans="1:7" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="51"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="52"/>
+    </row>
+    <row r="74" spans="1:7" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="76"/>
+      <c r="B74" s="77"/>
+      <c r="C74" s="71"/>
+      <c r="D74" s="77"/>
+      <c r="E74" s="77"/>
+      <c r="F74" s="78"/>
+      <c r="G74" s="78"/>
+    </row>
+    <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="50">
+        <v>16</v>
+      </c>
+      <c r="B75" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="69"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
+      <c r="E75" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" s="85" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="54"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" s="55"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="67"/>
+    </row>
+    <row r="77" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="54"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77" s="55"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="56"/>
+      <c r="G77" s="67"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
+      <c r="A78" s="41"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="52"/>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="37"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D79" s="38"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="40"/>
+      <c r="G79" s="52"/>
+    </row>
+    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="11">
+        <v>17</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" s="68"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
+      <c r="A81" s="19"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="68"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
+      <c r="A82" s="19"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="68"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="68"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
+      <c r="A84" s="19"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="68"/>
+    </row>
+    <row r="85" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="21"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="69"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="88"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="88"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Тестовое_СИБУР.xlsx
+++ b/Тестовое_СИБУР.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Desktop\test\Test_SIBUR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDE8CF8-52F3-44E4-BA9F-36F25A64E289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649EA9DE-47AA-46FA-AB49-97398754B6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="75">
   <si>
     <t xml:space="preserve">Индификатор </t>
   </si>
@@ -184,9 +184,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Таймер начнйт отсчет </t>
-  </si>
-  <si>
     <t xml:space="preserve">Запус таймера после паузы </t>
   </si>
   <si>
@@ -244,18 +241,12 @@
     <t xml:space="preserve">Попарное тестирование - удаление таймеров в разных состояниях </t>
   </si>
   <si>
-    <t>Анализ причино-следственных связей</t>
-  </si>
-  <si>
     <t>Переходы состояний - проверка системы при переходах из одного состояния в другое</t>
   </si>
   <si>
     <t xml:space="preserve">Техникики </t>
   </si>
   <si>
-    <t>Комбинационное тестирование, переходы состояний</t>
-  </si>
-  <si>
     <t>5. Нажать на зеленую кнопку править в верхнем левом углу  у работующего таймера</t>
   </si>
   <si>
@@ -281,18 +272,32 @@
   </si>
   <si>
     <t>Таймер не создастся</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таймер начнёт отсчет </t>
+  </si>
+  <si>
+    <t>Попарное тестирование</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -366,7 +371,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -430,17 +435,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -460,21 +454,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -536,19 +515,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -593,30 +559,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -789,19 +735,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -820,10 +753,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -832,13 +765,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -855,29 +799,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -887,254 +843,197 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% — акцент3" xfId="2" builtinId="38"/>
@@ -1417,10 +1316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1434,88 +1333,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="84" t="s">
-        <v>65</v>
+      <c r="G1" s="64" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="28" t="s">
-        <v>61</v>
+      <c r="G2" s="23" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="63" t="s">
-        <v>60</v>
+      <c r="D3" s="13"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="52" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="89"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="90"/>
+        <v>67</v>
+      </c>
+      <c r="D4" s="69"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="63"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="52"/>
     </row>
     <row r="5" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="89"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="90"/>
+        <v>68</v>
+      </c>
+      <c r="D5" s="69"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="63"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1530,57 +1429,57 @@
       <c r="E6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="29"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="8"/>
       <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="29"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="25" t="s">
-        <v>70</v>
+      <c r="C8" s="20" t="s">
+        <v>67</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="29"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="25" t="s">
-        <v>71</v>
+      <c r="C9" s="20" t="s">
+        <v>68</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="29"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="25" t="s">
-        <v>72</v>
+      <c r="C10" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="29"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1595,46 +1494,46 @@
       <c r="E11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="29"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="8"/>
       <c r="C12" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="29"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="20" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="29"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="91" t="s">
-        <v>71</v>
+      <c r="C14" s="70" t="s">
+        <v>68</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="29"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1649,55 +1548,55 @@
       <c r="E15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="29"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="8"/>
       <c r="C16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="29"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="29"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="91" t="s">
-        <v>71</v>
+      <c r="C18" s="70" t="s">
+        <v>68</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="29"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="73"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="72"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="57"/>
     </row>
     <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>5</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -1712,39 +1611,37 @@
       <c r="E20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="64" t="s">
-        <v>62</v>
+      <c r="G20" s="53" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="65" t="s">
-        <v>63</v>
-      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="54"/>
     </row>
     <row r="22" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="29"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="A23" s="10">
         <v>6</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -1759,46 +1656,46 @@
       <c r="E23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="29"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="29"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="29"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="9"/>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="27" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="29"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>7</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -1813,35 +1710,35 @@
       <c r="E27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="29"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="8"/>
       <c r="C28" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="29"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="27" t="s">
         <v>29</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="29"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+      <c r="A30" s="10">
         <v>8</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -1856,708 +1753,708 @@
       <c r="E30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="65"/>
+      <c r="G30" s="54"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="21" t="s">
         <v>38</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="65"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="54"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="21" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="65"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="54"/>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="21" t="s">
         <v>40</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="65"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="54"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="26" t="s">
-        <v>67</v>
+      <c r="C34" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="29"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="24"/>
     </row>
     <row r="35" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="9"/>
-      <c r="C35" s="32" t="s">
-        <v>68</v>
+      <c r="C35" s="26" t="s">
+        <v>65</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="29"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="97">
+      <c r="A36" s="72">
         <v>9</v>
       </c>
-      <c r="B36" s="98" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="99" t="s">
+      <c r="B36" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="98" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" s="100" t="s">
+      <c r="D36" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="101" t="s">
+      <c r="F36" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="92"/>
+      <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="9"/>
-      <c r="C37" s="93" t="s">
+      <c r="C37" s="71" t="s">
         <v>38</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="92"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="24"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="93" t="s">
+      <c r="C38" s="71" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="92"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="24"/>
     </row>
     <row r="39" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="102"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="104" t="s">
+      <c r="A39" s="25"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="24"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="86"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="57"/>
+    </row>
+    <row r="41" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="38">
+        <v>10</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="84" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="45"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="103"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="92"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="95"/>
-      <c r="B40" s="96"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="72"/>
-    </row>
-    <row r="41" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
-        <v>10</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="6" t="s">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="45"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="85"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="34"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="47"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="31"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="47"/>
+    </row>
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>11</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" s="6" t="s">
+      <c r="D46" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="34" t="s">
+      <c r="F46" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="64" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="26" t="s">
+      <c r="G46" s="55"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="17"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="66" t="s">
         <v>38</v>
-      </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="66"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="66"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="21"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="66"/>
-    </row>
-    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
-        <v>11</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="66"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="66"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="25" t="s">
-        <v>39</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="66"/>
+      <c r="G47" s="55"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
+      <c r="A48" s="17"/>
       <c r="B48" s="8"/>
-      <c r="C48" s="25" t="s">
-        <v>40</v>
+      <c r="C48" s="66" t="s">
+        <v>39</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
-      <c r="G48" s="66"/>
+      <c r="G48" s="55"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
+      <c r="A49" s="17"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="25" t="s">
-        <v>45</v>
+      <c r="C49" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
-      <c r="G49" s="66"/>
-    </row>
-    <row r="50" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="21"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="66"/>
-    </row>
-    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="18">
+      <c r="G49" s="55"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="17"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="55"/>
+    </row>
+    <row r="51" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="18"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="55"/>
+    </row>
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
         <v>12</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51" s="6" t="s">
+      <c r="B52" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="66"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="5" t="s">
+      <c r="D52" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="55"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="17"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="21" t="s">
         <v>38</v>
-      </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="66"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="25" t="s">
-        <v>47</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
-      <c r="G53" s="66"/>
+      <c r="G53" s="55"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
+      <c r="A54" s="17"/>
       <c r="B54" s="8"/>
-      <c r="C54" s="25" t="s">
-        <v>40</v>
+      <c r="C54" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
-      <c r="G54" s="66"/>
-    </row>
-    <row r="55" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="41"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="57"/>
-    </row>
-    <row r="56" spans="1:7" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="46">
+      <c r="G54" s="55"/>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="18"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="55"/>
+    </row>
+    <row r="56" spans="1:7" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
         <v>13</v>
       </c>
-      <c r="B56" s="47" t="s">
+      <c r="B56" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="55"/>
+    </row>
+    <row r="57" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="17"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="55"/>
+    </row>
+    <row r="58" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="17"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="55"/>
+    </row>
+    <row r="59" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="17"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="55"/>
+    </row>
+    <row r="60" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="17"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="55"/>
+    </row>
+    <row r="61" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="18"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="55"/>
+    </row>
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="16">
+        <v>14</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="55"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="17"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="55"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="17"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="55"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="17"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="55"/>
+    </row>
+    <row r="66" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="34"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="47"/>
+    </row>
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="38">
+        <v>15</v>
+      </c>
+      <c r="B67" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C56" s="47" t="s">
+      <c r="C67" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="47" t="s">
+      <c r="D67" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="E67" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" s="47"/>
+    </row>
+    <row r="68" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="34"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="47"/>
+    </row>
+    <row r="69" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="34"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="47"/>
+    </row>
+    <row r="70" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="34"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="47"/>
+    </row>
+    <row r="71" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="34"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="47"/>
+    </row>
+    <row r="72" spans="1:7" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="34"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="47"/>
+    </row>
+    <row r="73" spans="1:7" s="22" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="31"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="47"/>
+    </row>
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="42">
+        <v>16</v>
+      </c>
+      <c r="B74" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="E56" s="47" t="s">
+      <c r="C74" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="E74" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="58" t="s">
+      <c r="F74" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="G56" s="57"/>
-    </row>
-    <row r="57" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="49" t="s">
+      <c r="G74" s="47"/>
+    </row>
+    <row r="75" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="34"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="57"/>
-    </row>
-    <row r="58" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="45" t="s">
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="47"/>
+    </row>
+    <row r="76" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="34"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="57"/>
-    </row>
-    <row r="59" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="45" t="s">
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="47"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="34"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="57"/>
-    </row>
-    <row r="60" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="41"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="57"/>
-    </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="57"/>
-    </row>
-    <row r="62" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="37"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="39" t="s">
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="47"/>
+    </row>
+    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="34"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="47"/>
+    </row>
+    <row r="79" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="43"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="57"/>
-    </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="50">
-        <v>14</v>
-      </c>
-      <c r="B63" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C63" s="49" t="s">
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="47"/>
+    </row>
+    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="50">
+        <v>17</v>
+      </c>
+      <c r="B80" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D63" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="E63" s="49" t="s">
+      <c r="D80" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E80" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="F63" s="59" t="s">
+      <c r="F80" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="G63" s="57"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="41"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="45" t="s">
+      <c r="G80" s="47"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="43"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D64" s="42"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="57"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="41"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="45" t="s">
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="47"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="43"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="57"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="41"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="45" t="s">
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="47"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="43"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D66" s="42"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="57"/>
-    </row>
-    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="41"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="57"/>
-    </row>
-    <row r="68" spans="1:7" s="27" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="51"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="57"/>
-    </row>
-    <row r="69" spans="1:7" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="60">
-        <v>15</v>
-      </c>
-      <c r="B69" s="61" t="s">
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="47"/>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="78"/>
+      <c r="B84" s="79"/>
+      <c r="C84" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C69" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="E69" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="G69" s="52"/>
-    </row>
-    <row r="70" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="51"/>
-      <c r="B70" s="44"/>
-      <c r="C70" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52"/>
-    </row>
-    <row r="71" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="51"/>
-      <c r="B71" s="44"/>
-      <c r="C71" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="D71" s="44"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
-    </row>
-    <row r="72" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="51"/>
-      <c r="B72" s="44"/>
-      <c r="C72" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D72" s="44"/>
-      <c r="E72" s="44"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
-    </row>
-    <row r="73" spans="1:7" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="51"/>
-      <c r="B73" s="44"/>
-      <c r="C73" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="D73" s="44"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="52"/>
-      <c r="G73" s="52"/>
-    </row>
-    <row r="74" spans="1:7" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="76"/>
-      <c r="B74" s="77"/>
-      <c r="C74" s="71"/>
-      <c r="D74" s="77"/>
-      <c r="E74" s="77"/>
-      <c r="F74" s="78"/>
-      <c r="G74" s="78"/>
-    </row>
-    <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="50">
-        <v>16</v>
-      </c>
-      <c r="B75" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="C75" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E75" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="G75" s="85" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="54"/>
-      <c r="B76" s="55"/>
-      <c r="C76" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D76" s="55"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="56"/>
-      <c r="G76" s="67"/>
-    </row>
-    <row r="77" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="54"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="D77" s="55"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="56"/>
-      <c r="G77" s="67"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="41"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D78" s="42"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="43"/>
-      <c r="G78" s="52"/>
-    </row>
-    <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="37"/>
-      <c r="B79" s="38"/>
-      <c r="C79" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D79" s="38"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="40"/>
-      <c r="G79" s="52"/>
-    </row>
-    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="11">
-        <v>17</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C80" s="86" t="s">
-        <v>21</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G80" s="68"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="19"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="68"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="19"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="68"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="19"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="68"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="19"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="68"/>
-    </row>
-    <row r="85" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="21"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="69"/>
+      <c r="D84" s="79"/>
+      <c r="E84" s="79"/>
+      <c r="F84" s="79"/>
+      <c r="G84" s="81"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
+      <c r="C86" s="67"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -2566,7 +2463,7 @@
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="88"/>
+      <c r="C87" s="67"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -2575,7 +2472,7 @@
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
-      <c r="C88" s="88"/>
+      <c r="C88" s="8"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -2584,7 +2481,7 @@
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
-      <c r="C89" s="8"/>
+      <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -2626,15 +2523,6 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
